--- a/biology/Botanique/Blé_Hard_Red_Calcutta/Blé_Hard_Red_Calcutta.xlsx
+++ b/biology/Botanique/Blé_Hard_Red_Calcutta/Blé_Hard_Red_Calcutta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_Hard_Red_Calcutta</t>
+          <t>Blé_Hard_Red_Calcutta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Blé Hard Red Calcutta est un cultivar ancien de blé de printemps qui a été utilisé au Canada à la fin du XIXe siècle après avoir été introduit en 1892.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_Hard_Red_Calcutta</t>
+          <t>Blé_Hard_Red_Calcutta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Blé Hard Red Calcutta, géniteur femelle du blé Marquis, est un blé de printemps  originaire d'Inde et importé au Canada par Charles Saunders (céréaliste) à des fins expérimentales à la fin du XIXe siècle[1]. 
-Des échantillons sont distribués à des fermiers dans l'ensemble du pays en 1892[1], mais sans réussir. Comme il mûrit deux à trois semaines avant le Blé 'Red Fife', il est récolté avant l'apparition de la rouille, qu'il évite donc[1]. Il est également moins sensible à la rouille que son autre prédécesseur, plus récent mais moins réussi, le Blé Ladoga.
-Son rendement est cependant jugé trop faible pour une utilisation massive[1]. Il est à l'origine du "Blé Marquis", issue d'un croisement entre le Blé Hard Red Calcutta et le Blé 'Red Fife'[1]. Ce croisement a probablement été réalisé en 1892 à la Ferme expérimentale d'Agassiz
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Blé Hard Red Calcutta, géniteur femelle du blé Marquis, est un blé de printemps  originaire d'Inde et importé au Canada par Charles Saunders (céréaliste) à des fins expérimentales à la fin du XIXe siècle. 
+Des échantillons sont distribués à des fermiers dans l'ensemble du pays en 1892, mais sans réussir. Comme il mûrit deux à trois semaines avant le Blé 'Red Fife', il est récolté avant l'apparition de la rouille, qu'il évite donc. Il est également moins sensible à la rouille que son autre prédécesseur, plus récent mais moins réussi, le Blé Ladoga.
+Son rendement est cependant jugé trop faible pour une utilisation massive. Il est à l'origine du "Blé Marquis", issue d'un croisement entre le Blé Hard Red Calcutta et le Blé 'Red Fife'. Ce croisement a probablement été réalisé en 1892 à la Ferme expérimentale d'Agassiz
 </t>
         </is>
       </c>
